--- a/cotto-system/Plantillas/plantilla_carga_parametros.xlsx
+++ b/cotto-system/Plantillas/plantilla_carga_parametros.xlsx
@@ -383,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,6 +405,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
